--- a/src/main/resources/ARC-API-STG.xlsx
+++ b/src/main/resources/ARC-API-STG.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="232">
   <si>
     <t>FileID</t>
   </si>
@@ -687,6 +687,36 @@
   </si>
   <si>
     <t>ACS2SS103L-1000140426</t>
+  </si>
+  <si>
+    <t>1000140437</t>
+  </si>
+  <si>
+    <t>1000140440</t>
+  </si>
+  <si>
+    <t>1000140441</t>
+  </si>
+  <si>
+    <t>mDtN5CAknj6BjnIA2SSr4hOp</t>
+  </si>
+  <si>
+    <t>ACS2SS103L-1000140441</t>
+  </si>
+  <si>
+    <t>0000000010000000000796494</t>
+  </si>
+  <si>
+    <t>E7DF1B473FFA3BF19CD40AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>E7DF1B473FFA3DF19CD40AFDDE1F6773</t>
+  </si>
+  <si>
+    <t>227068</t>
+  </si>
+  <si>
+    <t>764745</t>
   </si>
 </sst>
 </file>
@@ -1152,19 +1182,19 @@
     <col min="12" max="12" bestFit="true" customWidth="true" style="16" width="17.85546875" collapsed="true"/>
     <col min="13" max="13" customWidth="true" style="3" width="9.5703125" collapsed="true"/>
     <col min="14" max="14" style="3" width="9.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="3" width="38.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="38.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="29.02734375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="3" width="37.2734375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="37.2734375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="28.91015625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="26.16796875" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="23.72265625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="8.515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="7.7265625" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.10546875" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="28.9140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="36.16015625" collapsed="true"/>
     <col min="29" max="29" bestFit="true" customWidth="true" width="14.0703125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1259,7 +1289,7 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
         <v>210</v>
@@ -1295,25 +1325,25 @@
         <v>212</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="S2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="T2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="U2" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="V2" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="W2" t="s">
         <v>25</v>
